--- a/Homework lab1/Bài tập lý thuyết.xlsx
+++ b/Homework lab1/Bài tập lý thuyết.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Techmaster\On-class exercise\SPRING_BOOT\Homework\Homework lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Techmaster\On-class exercise\SPRING_BOOT\Homework_Springboot\Homework lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,6 @@
     <sheet name="# Câu hỏi ôn tập kiến thức" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Ảnh cấu trúc project và file pom</t>
   </si>
@@ -235,9 +234,6 @@
     <t>annotation ```@GetMapping``` có tác dụng gì đối với phương thức trong Controller?</t>
   </si>
   <si>
-    <t>Dùng để kết nối các request GET HTTP vào các phương thức xử lý.</t>
-  </si>
-  <si>
     <t>annotation ```@Controller``` thuộc package nào?</t>
   </si>
   <si>
@@ -270,6 +266,9 @@
   </si>
   <si>
     <t>Không hiểu câu hỏi</t>
+  </si>
+  <si>
+    <t>Dùng để kết nối các request GET HTTP vào các phương thức xử lý vào url.</t>
   </si>
 </sst>
 </file>
@@ -968,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1047,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1056,10 +1055,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1067,10 +1066,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1078,10 +1077,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1089,10 +1088,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1100,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -1108,10 +1107,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
